--- a/branches/intro-page/ValueSet-vs-ethnicity.xlsx
+++ b/branches/intro-page/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T07:57:57+00:00</t>
+    <t>2022-11-01T11:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/intro-page/ValueSet-vs-ethnicity.xlsx
+++ b/branches/intro-page/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T11:33:15+00:00</t>
+    <t>2022-11-01T11:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
